--- a/docs/DML作成.xlsx
+++ b/docs/DML作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3334DE-DAD2-434D-8466-BE1BAA6D8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDB20F-2EBB-4BDE-B1A2-2EF04283BBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{405DAA66-E92A-4A17-950F-C48A30978CB6}"/>
+    <workbookView xWindow="2820" yWindow="375" windowWidth="25725" windowHeight="14625" xr2:uid="{405DAA66-E92A-4A17-950F-C48A30978CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSINESS_CALENDAR_MT" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
   <si>
     <t>営業日マスタID</t>
   </si>
@@ -373,12 +373,111 @@
   <si>
     <t>2023/09/30</t>
   </si>
+  <si>
+    <t>2023/10/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/10/03</t>
+  </si>
+  <si>
+    <t>2023/10/04</t>
+  </si>
+  <si>
+    <t>2023/10/05</t>
+  </si>
+  <si>
+    <t>2023/10/06</t>
+  </si>
+  <si>
+    <t>2023/10/07</t>
+  </si>
+  <si>
+    <t>2023/10/08</t>
+  </si>
+  <si>
+    <t>2023/10/09</t>
+  </si>
+  <si>
+    <t>2023/10/10</t>
+  </si>
+  <si>
+    <t>2023/10/11</t>
+  </si>
+  <si>
+    <t>2023/10/12</t>
+  </si>
+  <si>
+    <t>2023/10/13</t>
+  </si>
+  <si>
+    <t>2023/10/14</t>
+  </si>
+  <si>
+    <t>2023/10/15</t>
+  </si>
+  <si>
+    <t>2023/10/16</t>
+  </si>
+  <si>
+    <t>2023/10/17</t>
+  </si>
+  <si>
+    <t>2023/10/18</t>
+  </si>
+  <si>
+    <t>2023/10/19</t>
+  </si>
+  <si>
+    <t>2023/10/20</t>
+  </si>
+  <si>
+    <t>2023/10/21</t>
+  </si>
+  <si>
+    <t>2023/10/22</t>
+  </si>
+  <si>
+    <t>2023/10/23</t>
+  </si>
+  <si>
+    <t>2023/10/24</t>
+  </si>
+  <si>
+    <t>2023/10/25</t>
+  </si>
+  <si>
+    <t>2023/10/26</t>
+  </si>
+  <si>
+    <t>2023/10/27</t>
+  </si>
+  <si>
+    <t>2023/10/28</t>
+  </si>
+  <si>
+    <t>2023/10/29</t>
+  </si>
+  <si>
+    <t>2023/10/30</t>
+  </si>
+  <si>
+    <t>2023/10/31</t>
+  </si>
+  <si>
+    <t>2023/9/25 1:11:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +505,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -461,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,7 +592,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,16 +924,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FE3BF6-E5D3-4954-909C-E840E208492C}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="62.375" customWidth="1"/>
+    <col min="1" max="1" width="62.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
@@ -851,8 +981,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="str">
+    <row r="3" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="str">
         <f>"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C3&amp;"', '"&amp;$D3&amp;"', '"&amp;$E3&amp;"', '"&amp;$F3&amp;"', '"&amp;$G3&amp;"');"</f>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/01', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -867,15 +997,15 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="str">
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="str">
         <f t="shared" ref="A4:A67" si="0">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C4&amp;"', '"&amp;$D4&amp;"', '"&amp;$E4&amp;"', '"&amp;$F4&amp;"', '"&amp;$G4&amp;"');"</f>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/02', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -890,15 +1020,15 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="str">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/03', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -913,15 +1043,15 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="str">
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/04', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -936,15 +1066,15 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="str">
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/05', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -959,15 +1089,15 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="str">
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/06', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -982,15 +1112,15 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="str">
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/07', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1005,15 +1135,15 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="str">
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/08', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1028,15 +1158,15 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="str">
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/09', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1051,15 +1181,15 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="str">
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/10', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1074,15 +1204,15 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="str">
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/11', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1097,15 +1227,15 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" t="str">
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/12', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1120,15 +1250,15 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" t="str">
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/13', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1143,15 +1273,15 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" t="str">
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/14', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1166,15 +1296,15 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" t="str">
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/15', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1189,15 +1319,15 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" t="str">
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/16', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1212,15 +1342,15 @@
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" t="str">
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/17', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1235,15 +1365,15 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" t="str">
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/18', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1258,15 +1388,15 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" t="str">
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/19', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1281,15 +1411,15 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" t="str">
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/20', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1304,15 +1434,15 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" t="str">
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/21', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1327,15 +1457,15 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" t="str">
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/22', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1350,15 +1480,15 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" t="str">
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/23', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1373,15 +1503,15 @@
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" t="str">
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/24', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1396,15 +1526,15 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" t="str">
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/25', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1419,15 +1549,15 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" t="str">
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/26', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1442,15 +1572,15 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" t="str">
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/27', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1465,15 +1595,15 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" t="str">
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/28', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1488,15 +1618,15 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" t="str">
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/29', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1511,15 +1641,15 @@
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" t="str">
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/30', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1534,15 +1664,15 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" t="str">
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/07/31', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1557,15 +1687,15 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" t="str">
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/01', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1580,15 +1710,15 @@
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" t="str">
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/02', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1603,15 +1733,15 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" t="str">
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/03', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1626,15 +1756,15 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" t="str">
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/04', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1649,15 +1779,15 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" t="str">
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/05', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1672,15 +1802,15 @@
       <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" t="str">
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/06', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1695,15 +1825,15 @@
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" t="str">
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/07', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1718,15 +1848,15 @@
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" t="str">
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/08', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1741,15 +1871,15 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" t="str">
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/09', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1764,15 +1894,15 @@
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" t="str">
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/10', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1787,15 +1917,15 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" t="str">
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/11', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1810,15 +1940,15 @@
       <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" t="str">
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/12', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1833,15 +1963,15 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" t="str">
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/13', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1856,15 +1986,15 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" t="str">
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/14', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1879,15 +2009,15 @@
       <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" t="str">
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/15', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1902,15 +2032,15 @@
       <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" t="str">
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/16', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1925,15 +2055,15 @@
       <c r="E49" s="3">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" t="str">
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/17', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1948,15 +2078,15 @@
       <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" t="str">
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/18', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1971,15 +2101,15 @@
       <c r="E51" s="3">
         <v>1</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" t="str">
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/19', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -1994,15 +2124,15 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" t="str">
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/20', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2017,15 +2147,15 @@
       <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" t="str">
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/21', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2040,15 +2170,15 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" t="str">
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/22', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2063,15 +2193,15 @@
       <c r="E55" s="3">
         <v>1</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" t="str">
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/23', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2086,15 +2216,15 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" t="str">
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/24', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2109,15 +2239,15 @@
       <c r="E57" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" t="str">
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/25', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2132,15 +2262,15 @@
       <c r="E58" s="3">
         <v>1</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" t="str">
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/26', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2155,15 +2285,15 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" t="str">
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/27', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2178,15 +2308,15 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" t="str">
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/28', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2201,15 +2331,15 @@
       <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" t="str">
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/29', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2224,15 +2354,15 @@
       <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" t="str">
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/30', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2247,15 +2377,15 @@
       <c r="E63" s="3">
         <v>1</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" t="str">
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/08/31', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2270,15 +2400,15 @@
       <c r="E64" s="3">
         <v>1</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" t="str">
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/01', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2293,15 +2423,15 @@
       <c r="E65" s="3">
         <v>1</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" t="str">
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/02', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2316,15 +2446,15 @@
       <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" t="str">
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/03', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2339,16 +2469,16 @@
       <c r="E67" s="3">
         <v>0</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" t="str">
-        <f t="shared" ref="A68:A94" si="2">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C68&amp;"', '"&amp;$D68&amp;"', '"&amp;$E68&amp;"', '"&amp;$F68&amp;"', '"&amp;$G68&amp;"');"</f>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="str">
+        <f t="shared" ref="A68:A125" si="2">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C68&amp;"', '"&amp;$D68&amp;"', '"&amp;$E68&amp;"', '"&amp;$F68&amp;"', '"&amp;$G68&amp;"');"</f>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/04', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
       <c r="B68" s="2"/>
@@ -2356,21 +2486,21 @@
         <v>78</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" ref="D68:D94" si="3">TEXT(C68,"aaa")</f>
+        <f t="shared" ref="D68:D97" si="3">TEXT(C68,"aaa")</f>
         <v>月</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" t="str">
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/05', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2385,15 +2515,15 @@
       <c r="E69" s="3">
         <v>1</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" t="str">
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/06', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2408,15 +2538,15 @@
       <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" t="str">
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/07', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2431,15 +2561,15 @@
       <c r="E71" s="3">
         <v>1</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" t="str">
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/08', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2454,15 +2584,15 @@
       <c r="E72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" t="str">
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/09', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2477,15 +2607,15 @@
       <c r="E73" s="3">
         <v>0</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" t="str">
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/10', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2500,15 +2630,15 @@
       <c r="E74" s="3">
         <v>0</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" t="str">
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/11', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2523,15 +2653,15 @@
       <c r="E75" s="3">
         <v>1</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" t="str">
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/12', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2546,15 +2676,15 @@
       <c r="E76" s="3">
         <v>1</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" t="str">
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/13', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2569,15 +2699,15 @@
       <c r="E77" s="3">
         <v>1</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A78" t="str">
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/14', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2592,15 +2722,15 @@
       <c r="E78" s="3">
         <v>1</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A79" t="str">
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/15', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2615,15 +2745,15 @@
       <c r="E79" s="3">
         <v>1</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A80" t="str">
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A80" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/16', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2638,15 +2768,15 @@
       <c r="E80" s="3">
         <v>0</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" t="str">
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/17', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2661,15 +2791,15 @@
       <c r="E81" s="3">
         <v>0</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" t="str">
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/18', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2684,15 +2814,15 @@
       <c r="E82" s="3">
         <v>1</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" t="str">
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/19', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2707,15 +2837,15 @@
       <c r="E83" s="3">
         <v>1</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" t="str">
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/20', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2730,15 +2860,15 @@
       <c r="E84" s="3">
         <v>1</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" t="str">
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/21', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2753,15 +2883,15 @@
       <c r="E85" s="3">
         <v>1</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" t="str">
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/22', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2776,15 +2906,15 @@
       <c r="E86" s="3">
         <v>1</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A87" t="str">
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/23', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2799,15 +2929,15 @@
       <c r="E87" s="3">
         <v>0</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A88" t="str">
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/24', '日', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2822,15 +2952,15 @@
       <c r="E88" s="3">
         <v>0</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A89" t="str">
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/25', '月', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2845,15 +2975,15 @@
       <c r="E89" s="3">
         <v>1</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A90" t="str">
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/26', '火', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2868,15 +2998,15 @@
       <c r="E90" s="3">
         <v>1</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A91" t="str">
+      <c r="F90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/27', '水', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2891,15 +3021,15 @@
       <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92" t="str">
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/28', '木', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2914,15 +3044,15 @@
       <c r="E92" s="3">
         <v>1</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93" t="str">
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/29', '金', '1', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2937,15 +3067,15 @@
       <c r="E93" s="3">
         <v>1</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A94" t="str">
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/09/30', '土', '0', '2023/9/18 21:45:00', '2023/9/18 21:45:00');</v>
       </c>
@@ -2960,11 +3090,724 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>12</v>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/01', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/02', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="E96" s="8">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/03', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/04', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="9" t="str">
+        <f t="shared" ref="D98:D124" si="4">TEXT(C98,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/05', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>木</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/06', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>金</v>
+      </c>
+      <c r="E100" s="8">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/07', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>土</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A102" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/08', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>日</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A103" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/09', '月', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>月</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A104" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/10', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>火</v>
+      </c>
+      <c r="E104" s="8">
+        <v>1</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/11', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>水</v>
+      </c>
+      <c r="E105" s="8">
+        <v>1</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A106" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/12', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>木</v>
+      </c>
+      <c r="E106" s="8">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A107" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/13', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>金</v>
+      </c>
+      <c r="E107" s="8">
+        <v>1</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/14', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>土</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/15', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>日</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A110" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/16', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>月</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A111" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/17', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>火</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A112" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/18', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>水</v>
+      </c>
+      <c r="E112" s="8">
+        <v>1</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/19', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>木</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A114" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/20', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>金</v>
+      </c>
+      <c r="E114" s="8">
+        <v>1</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A115" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/21', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>土</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A116" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/22', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>日</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/23', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>月</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A118" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/24', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>火</v>
+      </c>
+      <c r="E118" s="8">
+        <v>1</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A119" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/25', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>水</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A120" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/26', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>木</v>
+      </c>
+      <c r="E120" s="8">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/27', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>金</v>
+      </c>
+      <c r="E121" s="8">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/28', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>土</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/29', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>日</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/30', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>月</v>
+      </c>
+      <c r="E124" s="8">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/31', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="9" t="str">
+        <f t="shared" ref="D125" si="5">TEXT(C125,"aaa")</f>
+        <v>火</v>
+      </c>
+      <c r="E125" s="8">
+        <v>1</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
